--- a/资料/事出无因-表格.xlsx
+++ b/资料/事出无因-表格.xlsx
@@ -16,12 +16,12 @@
     <sheet name="时间轴" sheetId="2" r:id="rId2"/>
     <sheet name="人物表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="209">
   <si>
     <t>章节号</t>
   </si>
@@ -53,9 +53,6 @@
     <t>√</t>
   </si>
   <si>
-    <t>0100</t>
-  </si>
-  <si>
     <t>故事</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>优化</t>
   </si>
   <si>
-    <t>0103</t>
-  </si>
-  <si>
     <t>云巅</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>炮击</t>
   </si>
   <si>
-    <t>0105</t>
-  </si>
-  <si>
     <t>旅馆</t>
   </si>
   <si>
@@ -101,15 +92,9 @@
     <t>离去</t>
   </si>
   <si>
-    <t>0108</t>
-  </si>
-  <si>
     <t>镜像</t>
   </si>
   <si>
-    <t>0109</t>
-  </si>
-  <si>
     <t>求助</t>
   </si>
   <si>
@@ -125,9 +110,6 @@
     <t>密钥</t>
   </si>
   <si>
-    <t>0112</t>
-  </si>
-  <si>
     <t>矩阵</t>
   </si>
   <si>
@@ -137,27 +119,15 @@
     <t>银行</t>
   </si>
   <si>
-    <t>0114</t>
-  </si>
-  <si>
     <t>重聚</t>
   </si>
   <si>
-    <t>0115</t>
-  </si>
-  <si>
     <t>黑鸟</t>
   </si>
   <si>
-    <t>0116</t>
-  </si>
-  <si>
     <t>资料</t>
   </si>
   <si>
-    <t>0117</t>
-  </si>
-  <si>
     <t>月泪</t>
   </si>
   <si>
@@ -167,9 +137,6 @@
     <t>传承</t>
   </si>
   <si>
-    <t>0119</t>
-  </si>
-  <si>
     <t>欢迎</t>
   </si>
   <si>
@@ -179,15 +146,9 @@
     <t>求职</t>
   </si>
   <si>
-    <t>0121</t>
-  </si>
-  <si>
     <t>生活</t>
   </si>
   <si>
-    <t>0122</t>
-  </si>
-  <si>
     <t>星光</t>
   </si>
   <si>
@@ -197,21 +158,12 @@
     <t>机场</t>
   </si>
   <si>
-    <t>0124</t>
-  </si>
-  <si>
     <t>实习</t>
   </si>
   <si>
-    <t>0125</t>
-  </si>
-  <si>
     <t>小说</t>
   </si>
   <si>
-    <t>0126</t>
-  </si>
-  <si>
     <t>遗憾</t>
   </si>
   <si>
@@ -233,9 +185,6 @@
     <t>后巷</t>
   </si>
   <si>
-    <t>0130</t>
-  </si>
-  <si>
     <t>洞穴</t>
   </si>
   <si>
@@ -245,15 +194,9 @@
     <t>你好</t>
   </si>
   <si>
-    <t>0132</t>
-  </si>
-  <si>
     <t>书房</t>
   </si>
   <si>
-    <t>0133</t>
-  </si>
-  <si>
     <t>下层</t>
   </si>
   <si>
@@ -263,33 +206,18 @@
     <t>旅者</t>
   </si>
   <si>
-    <t>0135</t>
-  </si>
-  <si>
     <t>扇湖</t>
   </si>
   <si>
-    <t>0136</t>
-  </si>
-  <si>
     <t>里应</t>
   </si>
   <si>
-    <t>0137</t>
-  </si>
-  <si>
     <t>外合</t>
   </si>
   <si>
-    <t>0138</t>
-  </si>
-  <si>
     <t>深夜</t>
   </si>
   <si>
-    <t>0139</t>
-  </si>
-  <si>
     <t>天桥</t>
   </si>
   <si>
@@ -299,33 +227,18 @@
     <t>花园</t>
   </si>
   <si>
-    <t>0141</t>
-  </si>
-  <si>
     <t>汽水</t>
   </si>
   <si>
-    <t>0142</t>
-  </si>
-  <si>
     <t>公园</t>
   </si>
   <si>
-    <t>0143</t>
-  </si>
-  <si>
     <t>晌午</t>
   </si>
   <si>
-    <t>0144</t>
-  </si>
-  <si>
     <t>港口</t>
   </si>
   <si>
-    <t>0145</t>
-  </si>
-  <si>
     <t>镜岛</t>
   </si>
   <si>
@@ -582,55 +495,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0146</t>
-  </si>
-  <si>
-    <t>0147</t>
-  </si>
-  <si>
-    <t>0148</t>
-  </si>
-  <si>
-    <t>0149</t>
-  </si>
-  <si>
-    <t>0150</t>
-  </si>
-  <si>
-    <t>0151</t>
-  </si>
-  <si>
-    <t>0152</t>
-  </si>
-  <si>
-    <t>0153</t>
-  </si>
-  <si>
-    <t>0154</t>
-  </si>
-  <si>
-    <t>0155</t>
-  </si>
-  <si>
-    <t>0156</t>
-  </si>
-  <si>
-    <t>0157</t>
-  </si>
-  <si>
-    <t>0158</t>
-  </si>
-  <si>
-    <t>0159</t>
-  </si>
-  <si>
-    <t>0160</t>
-  </si>
-  <si>
     <t>“不谈政治，不谈历史，只谈重力”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -812,6 +676,30 @@
   </si>
   <si>
     <t>住在港口的人类遇见两个机器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢遇见月曾经的挚友、在其帮助下寻找挚爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下城得到密钥、确认即将可以离开地下城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,6 +707,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -866,7 +757,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,9 +764,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1219,804 +1110,888 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
     <col min="3" max="3" width="50.875" customWidth="1"/>
-    <col min="4" max="9" width="9" style="2"/>
+    <col min="4" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>186</v>
+      <c r="A2" s="5">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())),-1,0)+1</f>
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <f t="shared" ref="A6:A48" ca="1" si="0">OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())),-1,0)+1</f>
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())),-1,0)+1</f>
+        <v>131</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>191</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>196</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>198</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" t="s">
+        <v>201</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="B48" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="I48" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="5">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())),-1,0)+1</f>
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="5">
+        <f t="shared" ref="A50:A64" ca="1" si="1">OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())),-1,0)+1</f>
+        <v>146</v>
+      </c>
+      <c r="B50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="H51" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="B52" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>209</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>216</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>217</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>221</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>223</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>224</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>225</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>227</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>229</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>230</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>231</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>232</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>233</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" t="s">
-        <v>234</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" t="s">
-        <v>235</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>236</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>237</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>238</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" t="s">
-        <v>241</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>242</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" t="s">
-        <v>243</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" t="s">
-        <v>244</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>245</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" t="s">
-        <v>246</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>247</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>201</v>
+      <c r="G52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="5">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(), COLUMN())),-1,0)+1</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2024,7 +1999,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D4:I49 A1:B1 A4:B49 B2 D1:I2" numberStoredAsText="1"/>
+    <ignoredError sqref="D49:I49 A1:B1 B49 B2 D1:I2 B4:B48 D4:I48" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2044,52 +2019,52 @@
     <col min="2" max="2" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>103</v>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2119,584 +2094,584 @@
     <col min="6" max="6" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>119</v>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
         <v>126</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
         <v>139</v>
-      </c>
-      <c r="B22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/资料/事出无因-表格.xlsx
+++ b/资料/事出无因-表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12450" activeTab="2"/>
+    <workbookView windowWidth="13725" windowHeight="4500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="故事线表格" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="264">
   <si>
     <t>章节号</t>
   </si>
@@ -351,9 +351,15 @@
     <t>改写</t>
   </si>
   <si>
+    <t>卢与朱澄散步时遇到沙岛、卢出于某种目的暂时与朱分手</t>
+  </si>
+  <si>
     <t>蛛网</t>
   </si>
   <si>
+    <t>虫族已经潜伏在月球背面、等待着最后确认</t>
+  </si>
+  <si>
     <t>道别</t>
   </si>
   <si>
@@ -363,19 +369,31 @@
     <t>事件</t>
   </si>
   <si>
-    <t>公元2085年</t>
+    <t>公元2022年7月18日-8月1日</t>
+  </si>
+  <si>
+    <t>《实习报告》</t>
+  </si>
+  <si>
+    <t>公元2023年1月21日</t>
+  </si>
+  <si>
+    <t>《亲爱的李同学》</t>
+  </si>
+  <si>
+    <t>公元2088年</t>
   </si>
   <si>
     <t>核战爆发</t>
   </si>
   <si>
-    <t>公元2105年</t>
+    <t>公元2111年</t>
   </si>
   <si>
     <t>尘埃落地,人类第一次走出地下城</t>
   </si>
   <si>
-    <t>公元2120年</t>
+    <t>公元2120-2125年</t>
   </si>
   <si>
     <t>云虫创造新人类</t>
@@ -390,7 +408,127 @@
     <t>公元2170年</t>
   </si>
   <si>
-    <t>云虫复建造30座著名城市</t>
+    <t>云虫复建造130座著名城市</t>
+  </si>
+  <si>
+    <t>公元2171年4月</t>
+  </si>
+  <si>
+    <t>云虫的舰队从比邻星飞回</t>
+  </si>
+  <si>
+    <t>公元2171年7月</t>
+  </si>
+  <si>
+    <t>旅者舰队启航</t>
+  </si>
+  <si>
+    <t>公元2171年7月9日（周二）</t>
+  </si>
+  <si>
+    <t>卢在云虫实验室见到林一、小石应聘</t>
+  </si>
+  <si>
+    <t>公元2171年7月10日（周三）</t>
+  </si>
+  <si>
+    <t>卢和林一进入镜像云虫</t>
+  </si>
+  <si>
+    <t>公元2171年7月19日（周五）</t>
+  </si>
+  <si>
+    <t>小陈带着小石深夜外出</t>
+  </si>
+  <si>
+    <t>公元2171年7月23日（周二）</t>
+  </si>
+  <si>
+    <t>云虫使用EMP炸弹打击地下城</t>
+  </si>
+  <si>
+    <t>公元2171年7月28日（周日）</t>
+  </si>
+  <si>
+    <t>禾来到新常州</t>
+  </si>
+  <si>
+    <t>公元2171年7月29日（周一）</t>
+  </si>
+  <si>
+    <t>禾来到云虫实验室与卢和林一见面</t>
+  </si>
+  <si>
+    <t>公元2171年7月30日（周二）</t>
+  </si>
+  <si>
+    <t>云虫核心召开会议</t>
+  </si>
+  <si>
+    <t>公元2171年7月31日（周三）</t>
+  </si>
+  <si>
+    <t>聚会、烟花和后巷</t>
+  </si>
+  <si>
+    <t>公元2171年8月1日（周四）</t>
+  </si>
+  <si>
+    <t>禾和林一进入镜像洞穴、云虫舰队在月球附近接应核心</t>
+  </si>
+  <si>
+    <t>公元2171年8月2日（周五）</t>
+  </si>
+  <si>
+    <t>月前往书房</t>
+  </si>
+  <si>
+    <t>公元2171年8月3日（周六）</t>
+  </si>
+  <si>
+    <t>阿皮和方方参加汽水展、小彼得和女友约会</t>
+  </si>
+  <si>
+    <t>公元2171年8月4日（周日）</t>
+  </si>
+  <si>
+    <t>月来到新常州、卢进入云虫内部遇到李</t>
+  </si>
+  <si>
+    <t>公元2171年8月7日（周三）</t>
+  </si>
+  <si>
+    <t>禾和月在天桥见面</t>
+  </si>
+  <si>
+    <t>公元2171年8月9日（周五）</t>
+  </si>
+  <si>
+    <t>禾和月前往郊外传递密钥</t>
+  </si>
+  <si>
+    <t>公元2171年8月10日（周六）</t>
+  </si>
+  <si>
+    <t>地下城发表演讲、虫族舰队抵达月背</t>
+  </si>
+  <si>
+    <t>公元2171年8月11日（周日）</t>
+  </si>
+  <si>
+    <t>卢在镜岛认识沙岛</t>
+  </si>
+  <si>
+    <t>公元2171年8月12日（周一）</t>
+  </si>
+  <si>
+    <t>卢进入朱澄的世界</t>
+  </si>
+  <si>
+    <t>公元2171年8月13日（周二）</t>
+  </si>
+  <si>
+    <t>禾主动进入书寻求破局之道</t>
   </si>
   <si>
     <t>名字</t>
@@ -661,6 +799,15 @@
   </si>
   <si>
     <t>0145</t>
+  </si>
+  <si>
+    <t>朱澄</t>
+  </si>
+  <si>
+    <t>0149</t>
+  </si>
+  <si>
+    <t>卢的另一半？</t>
   </si>
 </sst>
 </file>
@@ -668,11 +815,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0000"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -699,21 +846,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -729,7 +861,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,24 +899,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,16 +914,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -797,24 +937,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,14 +960,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,7 +998,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,25 +1064,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,139 +1166,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1196,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,26 +1231,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,6 +1251,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,15 +1281,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1145,148 +1292,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1690,9 +1837,9 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2517,6 +2664,9 @@
       <c r="B53" t="s">
         <v>110</v>
       </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
       <c r="E53" s="5" t="s">
         <v>11</v>
       </c>
@@ -2527,7 +2677,10 @@
         <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>11</v>
@@ -2539,7 +2692,7 @@
         <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>11</v>
@@ -2604,7 +2757,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D49:I49 A1:B1 B49 B2 D1:I2 B4:B48 D4:I48" numberStoredAsText="1"/>
+    <ignoredError sqref="D4:I48 B4:B48 D1:I2 B2 B49 A1:B1 D49:I49" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2612,73 +2765,251 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-    </row>
+    <row r="4" s="3" customFormat="1"/>
+    <row r="5" s="3" customFormat="1"/>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 B6 B7 B8 A9:B9 A10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2686,12 +3017,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -2705,602 +3036,622 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E22" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="E28" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="F28" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F31" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/资料/事出无因-表格.xlsx
+++ b/资料/事出无因-表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="4500" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="故事线表格" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="272">
   <si>
     <t>章节号</t>
   </si>
@@ -354,15 +354,30 @@
     <t>卢与朱澄散步时遇到沙岛、卢出于某种目的暂时与朱分手</t>
   </si>
   <si>
+    <t>神明</t>
+  </si>
+  <si>
+    <t>小陈记下梦中内容、隔天前往城中</t>
+  </si>
+  <si>
+    <t>动物</t>
+  </si>
+  <si>
+    <t>解药</t>
+  </si>
+  <si>
+    <t>手环</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
     <t>蛛网</t>
   </si>
   <si>
     <t>虫族已经潜伏在月球背面、等待着最后确认</t>
   </si>
   <si>
-    <t>道别</t>
-  </si>
-  <si>
     <t>时间</t>
   </si>
   <si>
@@ -381,6 +396,12 @@
     <t>《亲爱的李同学》</t>
   </si>
   <si>
+    <t>公元2023年10月19日</t>
+  </si>
+  <si>
+    <t>《亲爱的吴女士》</t>
+  </si>
+  <si>
     <t>公元2088年</t>
   </si>
   <si>
@@ -529,6 +550,9 @@
   </si>
   <si>
     <t>禾主动进入书寻求破局之道</t>
+  </si>
+  <si>
+    <t>公元2171年8月14日（周三）</t>
   </si>
   <si>
     <t>名字</t>
@@ -813,12 +837,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0000"/>
   </numFmts>
   <fonts count="22">
@@ -845,23 +869,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,30 +882,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -930,6 +916,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -937,15 +939,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -960,7 +972,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,17 +992,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,31 +1022,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,31 +1070,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,13 +1106,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,55 +1178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,31 +1190,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,15 +1213,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1212,6 +1227,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,47 +1297,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,148 +1316,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1454,52 +1478,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1834,10 +1858,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
@@ -1923,7 +1947,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4">
-        <f ca="1" t="shared" ref="A6:A49" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <f ca="1" t="shared" ref="A6:A53" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>102</v>
       </c>
       <c r="B6" t="s">
@@ -2613,7 +2637,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4">
-        <f ca="1" t="shared" ref="A50:A64" si="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <f ca="1" t="shared" si="0"/>
         <v>146</v>
       </c>
       <c r="B50" t="s">
@@ -2628,7 +2652,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1" t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="B51" t="s">
@@ -2643,7 +2667,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1" t="shared" si="0"/>
         <v>148</v>
       </c>
       <c r="B52" t="s">
@@ -2658,7 +2682,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1" t="shared" si="0"/>
         <v>149</v>
       </c>
       <c r="B53" t="s">
@@ -2671,9 +2695,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" s="4">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>150</v>
       </c>
       <c r="B54" t="s">
@@ -2682,74 +2706,134 @@
       <c r="C54" t="s">
         <v>113</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="D54" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="4">
-        <f ca="1" t="shared" si="1"/>
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>151</v>
       </c>
       <c r="B55" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="G55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="4">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <v>153</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="4">
+        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <v>154</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="4">
+        <f ca="1" t="shared" ref="A65:A75" si="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <v>1</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4">
         <f ca="1" t="shared" si="1"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="4">
         <f ca="1" t="shared" si="1"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="4">
         <f ca="1" t="shared" si="1"/>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="4">
         <f ca="1" t="shared" si="1"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="4">
         <f ca="1" t="shared" si="1"/>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="4">
         <f ca="1" t="shared" si="1"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="4">
         <f ca="1" t="shared" si="1"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="4">
         <f ca="1" t="shared" si="1"/>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="4">
         <f ca="1" t="shared" si="1"/>
-        <v>160</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="4">
+        <f ca="1" t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2765,12 +2849,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
@@ -2781,228 +2865,240 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:2">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="5" s="3" customFormat="1"/>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3036,622 +3132,622 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
         <v>186</v>
       </c>
-      <c r="B4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" t="s">
-        <v>178</v>
-      </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F13" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F14" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F15" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E18" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F18" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D19" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F20" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F21" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E22" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E23" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F25" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" t="s">
         <v>246</v>
       </c>
-      <c r="C26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" t="s">
-        <v>238</v>
-      </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D27" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C29" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F31" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/资料/事出无因-表格.xlsx
+++ b/资料/事出无因-表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="故事线表格" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="274">
   <si>
     <t>章节号</t>
   </si>
@@ -360,7 +360,10 @@
     <t>小陈记下梦中内容、隔天前往城中</t>
   </si>
   <si>
-    <t>动物</t>
+    <t>雨林</t>
+  </si>
+  <si>
+    <t>禾参观微型龙的热带雨林全息仓</t>
   </si>
   <si>
     <t>解药</t>
@@ -553,6 +556,9 @@
   </si>
   <si>
     <t>公元2171年8月14日（周三）</t>
+  </si>
+  <si>
+    <t>禾参观微型龙全息仓A</t>
   </si>
   <si>
     <t>名字</t>
@@ -1860,8 +1866,8 @@
   <sheetPr/>
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
@@ -1947,7 +1953,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4">
-        <f ca="1" t="shared" ref="A6:A53" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <f ca="1" t="shared" ref="A6:A58" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>102</v>
       </c>
       <c r="B6" t="s">
@@ -2697,7 +2703,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="4">
-        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <f ca="1" t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="B54" t="s">
@@ -2715,23 +2721,26 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4">
-        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <f ca="1" t="shared" si="0"/>
         <v>151</v>
       </c>
       <c r="B55" t="s">
         <v>114</v>
       </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
       <c r="G55" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4">
-        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <f ca="1" t="shared" si="0"/>
         <v>152</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>11</v>
@@ -2739,11 +2748,11 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4">
-        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <f ca="1" t="shared" si="0"/>
         <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>11</v>
@@ -2751,11 +2760,11 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="4">
-        <f ca="1">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <f ca="1" t="shared" si="0"/>
         <v>154</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>11</v>
@@ -2767,10 +2776,10 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>11</v>
@@ -2841,7 +2850,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D4:I48 B4:B48 D1:I2 B2 B49 A1:B1 D49:I49" numberStoredAsText="1"/>
+    <ignoredError sqref="D49:I49 A1:B1 B49 B2 D1:I2 B4:B48 D4:I48" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2851,7 +2860,7 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
@@ -2865,247 +2874,250 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1"/>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="B32" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B1 B6 B7 B8 A9:B9 A10" numberStoredAsText="1"/>
+    <ignoredError sqref="A10 A9:B9 B8 B7 B6 A1:B1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3132,622 +3144,622 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
         <v>190</v>
       </c>
-      <c r="B3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" t="s">
-        <v>188</v>
-      </c>
       <c r="F3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" t="s">
         <v>222</v>
       </c>
-      <c r="B14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" t="s">
-        <v>220</v>
-      </c>
       <c r="F14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E18" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F22" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" t="s">
         <v>248</v>
       </c>
-      <c r="C23" t="s">
-        <v>249</v>
-      </c>
-      <c r="D23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" t="s">
-        <v>246</v>
-      </c>
       <c r="F23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" t="s">
         <v>248</v>
       </c>
-      <c r="C24" t="s">
-        <v>249</v>
-      </c>
-      <c r="D24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E24" t="s">
-        <v>246</v>
-      </c>
       <c r="F24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" t="s">
         <v>248</v>
       </c>
-      <c r="C25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" t="s">
-        <v>246</v>
-      </c>
       <c r="F25" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C28" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E29" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/资料/事出无因-表格.xlsx
+++ b/资料/事出无因-表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="故事线表格" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="277">
   <si>
     <t>章节号</t>
   </si>
@@ -369,12 +369,21 @@
     <t>解药</t>
   </si>
   <si>
+    <t>待定（小陈来林一这寻找解药）</t>
+  </si>
+  <si>
     <t>手环</t>
   </si>
   <si>
+    <t>待定（卢从月留下的手环得知其他信息）</t>
+  </si>
+  <si>
     <t>民族</t>
   </si>
   <si>
+    <t>待定（机器人询问阴影问题，然后参与计划）</t>
+  </si>
+  <si>
     <t>蛛网</t>
   </si>
   <si>
@@ -678,7 +687,7 @@
     <t>席拉</t>
   </si>
   <si>
-    <t>鲍迪</t>
+    <t>洛迪</t>
   </si>
   <si>
     <t>历史镜像</t>
@@ -690,7 +699,7 @@
     <t>由历史生成的镜像暴徒</t>
   </si>
   <si>
-    <t>悉尼</t>
+    <t>珀斯</t>
   </si>
   <si>
     <t>捷</t>
@@ -1867,9 +1876,9 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1953,7 +1962,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4">
-        <f ca="1" t="shared" ref="A6:A58" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
+        <f ca="1" t="shared" ref="A6:A63" si="0">OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),-1,0)+1</f>
         <v>102</v>
       </c>
       <c r="B6" t="s">
@@ -2742,6 +2751,9 @@
       <c r="B56" t="s">
         <v>116</v>
       </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
       <c r="G56" s="5" t="s">
         <v>11</v>
       </c>
@@ -2752,7 +2764,10 @@
         <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>11</v>
@@ -2764,10 +2779,43 @@
         <v>154</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="4">
+        <f ca="1" t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="4">
+        <f ca="1" t="shared" si="0"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="4">
+        <f ca="1" t="shared" si="0"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="4">
+        <f ca="1" t="shared" si="0"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="4">
+        <f ca="1" t="shared" si="0"/>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2776,10 +2824,10 @@
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>11</v>
@@ -2850,7 +2898,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D49:I49 A1:B1 B49 B2 D1:I2 B4:B48 D4:I48" numberStoredAsText="1"/>
+    <ignoredError sqref="D4:I48 B4:B48 D1:I2 B2 B49 A1:B1 D49:I49" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2860,10 +2908,10 @@
   <sheetPr/>
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1"/>
@@ -2874,250 +2922,250 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" s="3" customFormat="1" spans="1:2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1"/>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B30" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A10 A9:B9 B8 B7 B6 A1:B1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 B6 B7 B8 A9:B9 A10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3127,10 +3175,10 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -3144,622 +3192,622 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
         <v>193</v>
       </c>
-      <c r="C3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" t="s">
-        <v>190</v>
-      </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
         <v>196</v>
       </c>
-      <c r="B4" t="s">
-        <v>193</v>
-      </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" t="s">
         <v>203</v>
       </c>
-      <c r="D6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" t="s">
-        <v>200</v>
-      </c>
       <c r="F6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" t="s">
         <v>203</v>
       </c>
-      <c r="D7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" t="s">
-        <v>200</v>
-      </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F13" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" t="s">
         <v>224</v>
       </c>
-      <c r="B14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" t="s">
-        <v>221</v>
-      </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F14" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F17" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E18" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F18" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F20" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E21" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E23" t="s">
         <v>251</v>
       </c>
-      <c r="D23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" t="s">
-        <v>248</v>
-      </c>
       <c r="F23" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" t="s">
         <v>251</v>
       </c>
-      <c r="D24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" t="s">
-        <v>248</v>
-      </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" t="s">
         <v>251</v>
       </c>
-      <c r="D25" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" t="s">
-        <v>248</v>
-      </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C26" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E26" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C27" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F27" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E28" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D29" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E29" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D31" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3767,7 +3815,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F29" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F12 B13:F13 B14:F14 A15:F29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>